--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/43.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/43.xlsx
@@ -479,13 +479,13 @@
         <v>-0.09694386705935368</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.495608791561706</v>
+        <v>-1.50712592370074</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2126436216193658</v>
+        <v>0.2142812586364343</v>
       </c>
       <c r="G2" t="n">
-        <v>0.165380258457482</v>
+        <v>0.1537472413898663</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1191053871328131</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.423345999701273</v>
+        <v>-1.427658138885882</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2051483064228089</v>
+        <v>0.1984983412842248</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1460390638771243</v>
+        <v>0.1322511970585578</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1502140349222369</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.448500958172394</v>
+        <v>-1.446285116353768</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1788052224733835</v>
+        <v>0.1806380341070114</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1736721300578719</v>
+        <v>0.1587485909392004</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1802045064924768</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.541867005448309</v>
+        <v>-1.546797604199141</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1825647735248585</v>
+        <v>0.1938922203334235</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1511849646268477</v>
+        <v>0.1314302438276549</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2009082133320766</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.530452949903646</v>
+        <v>-1.550674260020551</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2848905555422035</v>
+        <v>0.2990943882623123</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1791388490835647</v>
+        <v>0.1534929044676624</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2082012113585218</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.414564971718131</v>
+        <v>-1.451975676267827</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3582139994595015</v>
+        <v>0.3737004953628115</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08817771903606633</v>
+        <v>0.06552038573622948</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2021958626769915</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.137917151158747</v>
+        <v>-1.186862675547102</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4387448760139313</v>
+        <v>0.4607617926031827</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03229617671173252</v>
+        <v>0.00910089337500387</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1828609305343076</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.6470840964664245</v>
+        <v>-0.6914125213317966</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4032907969952435</v>
+        <v>0.4243056139125978</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.001268368050389863</v>
+        <v>-0.01158639613893676</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1451506503787012</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.05524451818056274</v>
+        <v>-0.0947063859661621</v>
       </c>
       <c r="F10" t="n">
-        <v>0.427147234345567</v>
+        <v>0.4333440284213273</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.04551933298981496</v>
+        <v>-0.05465167528276364</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.07909065509132093</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5651405676184617</v>
+        <v>0.5464269814144778</v>
       </c>
       <c r="F11" t="n">
-        <v>0.253798019282941</v>
+        <v>0.2626479683025553</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04091138227698338</v>
+        <v>-0.04673734458128084</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.022495938430645</v>
       </c>
       <c r="E12" t="n">
-        <v>1.272198431186769</v>
+        <v>1.264505501690945</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1176369637291821</v>
+        <v>-0.1082027107012431</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02374569874440149</v>
+        <v>0.02038686557754994</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1569505568347082</v>
       </c>
       <c r="E13" t="n">
-        <v>1.93113050375627</v>
+        <v>1.939558997588252</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4918696528855485</v>
+        <v>-0.4823927054102372</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1359040119916019</v>
+        <v>0.1368451195958241</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3102847757681036</v>
       </c>
       <c r="E14" t="n">
-        <v>2.520385848134751</v>
+        <v>2.546988148371794</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.048455816055373</v>
+        <v>-1.039092923746613</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2749769048623406</v>
+        <v>0.2843367475677163</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4625273843604253</v>
       </c>
       <c r="E15" t="n">
-        <v>3.207210203172618</v>
+        <v>3.229754091226579</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.673858719262003</v>
+        <v>-1.663122285589207</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3723964849559241</v>
+        <v>0.3859129370733378</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.5998756358484254</v>
       </c>
       <c r="E16" t="n">
-        <v>3.841388645076299</v>
+        <v>3.86611970867708</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.241947986395295</v>
+        <v>-2.21418317734837</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5771718628879938</v>
+        <v>0.587714341785584</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.7230413613262654</v>
       </c>
       <c r="E17" t="n">
-        <v>4.433348377735481</v>
+        <v>4.469726486579442</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.868778103985516</v>
+        <v>-2.822810822261722</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7776893845756854</v>
+        <v>0.7921115688980699</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.8385055098755376</v>
       </c>
       <c r="E18" t="n">
-        <v>4.849628998346858</v>
+        <v>4.894419133164528</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.487800017072009</v>
+        <v>-3.433368866116982</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9692544905700688</v>
+        <v>0.9717600447101499</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.9497753727214137</v>
       </c>
       <c r="E19" t="n">
-        <v>5.214637247188087</v>
+        <v>5.251449619553893</v>
       </c>
       <c r="F19" t="n">
-        <v>-4.077109034470043</v>
+        <v>-4.011450463697438</v>
       </c>
       <c r="G19" t="n">
-        <v>1.222094667433269</v>
+        <v>1.231100146225454</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.053614171648994</v>
       </c>
       <c r="E20" t="n">
-        <v>5.591172996819854</v>
+        <v>5.624751569757541</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.631315287159196</v>
+        <v>-4.554747675162275</v>
       </c>
       <c r="G20" t="n">
-        <v>1.402693399659723</v>
+        <v>1.412427733660622</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.146117492709672</v>
       </c>
       <c r="E21" t="n">
-        <v>5.905084531045837</v>
+        <v>5.933620279828172</v>
       </c>
       <c r="F21" t="n">
-        <v>-5.021455317485829</v>
+        <v>-4.9394725247604</v>
       </c>
       <c r="G21" t="n">
-        <v>1.545660636051498</v>
+        <v>1.553362714357472</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.223363184889704</v>
       </c>
       <c r="E22" t="n">
-        <v>6.081102758989913</v>
+        <v>6.099036866569013</v>
       </c>
       <c r="F22" t="n">
-        <v>-5.312207553695012</v>
+        <v>-5.240131397561663</v>
       </c>
       <c r="G22" t="n">
-        <v>1.745634718416207</v>
+        <v>1.755854549275797</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.284790251742014</v>
       </c>
       <c r="E23" t="n">
-        <v>6.27396699602577</v>
+        <v>6.285416426969684</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.548662821498052</v>
+        <v>-5.49615322563512</v>
       </c>
       <c r="G23" t="n">
-        <v>1.877357457211455</v>
+        <v>1.8910855518037</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.330070329457547</v>
       </c>
       <c r="E24" t="n">
-        <v>6.457543360996107</v>
+        <v>6.449326509638958</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.644741033543298</v>
+        <v>-5.597621611661126</v>
       </c>
       <c r="G24" t="n">
-        <v>1.966075299009874</v>
+        <v>1.981444080222571</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.361834538408509</v>
       </c>
       <c r="E25" t="n">
-        <v>6.522892701985601</v>
+        <v>6.520801893905709</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.680878681160451</v>
+        <v>-5.641913593766063</v>
       </c>
       <c r="G25" t="n">
-        <v>2.034502299734238</v>
+        <v>2.056733298481028</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.381297799285925</v>
       </c>
       <c r="E26" t="n">
-        <v>6.587163703218605</v>
+        <v>6.591607585269391</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.654261132906489</v>
+        <v>-5.624614413611457</v>
       </c>
       <c r="G26" t="n">
-        <v>2.044140266268211</v>
+        <v>2.074246560793172</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.390412227600169</v>
       </c>
       <c r="E27" t="n">
-        <v>6.534039612273848</v>
+        <v>6.53675131960267</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.662491707478866</v>
+        <v>-5.635116637744383</v>
       </c>
       <c r="G27" t="n">
-        <v>2.058308723589068</v>
+        <v>2.091505486183112</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.387730890185739</v>
       </c>
       <c r="E28" t="n">
-        <v>6.501634526718225</v>
+        <v>6.50055496712038</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.544516733217688</v>
+        <v>-5.519287211943835</v>
       </c>
       <c r="G28" t="n">
-        <v>2.018207658934237</v>
+        <v>2.05349400976682</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.372421903524703</v>
       </c>
       <c r="E29" t="n">
-        <v>6.440158182026081</v>
+        <v>6.444835053775384</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.384305666972723</v>
+        <v>-5.358282181457914</v>
       </c>
       <c r="G29" t="n">
-        <v>1.932752282835744</v>
+        <v>1.972843588759747</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.342569893517517</v>
       </c>
       <c r="E30" t="n">
-        <v>6.354343562648983</v>
+        <v>6.355123041273866</v>
       </c>
       <c r="F30" t="n">
-        <v>-5.203001866443949</v>
+        <v>-5.179067054286663</v>
       </c>
       <c r="G30" t="n">
-        <v>1.909234961381692</v>
+        <v>1.945738713885063</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.298724236941295</v>
       </c>
       <c r="E31" t="n">
-        <v>6.271102808527761</v>
+        <v>6.264244860438406</v>
       </c>
       <c r="F31" t="n">
-        <v>-5.046175402514428</v>
+        <v>-5.024316455380454</v>
       </c>
       <c r="G31" t="n">
-        <v>1.805880243182673</v>
+        <v>1.843096992957163</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.24149059980981</v>
       </c>
       <c r="E32" t="n">
-        <v>6.118366472656512</v>
+        <v>6.112616140516131</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.796925218754566</v>
+        <v>-4.774498130510202</v>
       </c>
       <c r="G32" t="n">
-        <v>1.779699398133263</v>
+        <v>1.812069108289635</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.174352098192674</v>
       </c>
       <c r="E33" t="n">
-        <v>5.885659777332765</v>
+        <v>5.881312262748905</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.638764553344659</v>
+        <v>-4.615159708273493</v>
       </c>
       <c r="G33" t="n">
-        <v>1.686050347663336</v>
+        <v>1.722084461245611</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.100342715351125</v>
       </c>
       <c r="E34" t="n">
-        <v>5.682997774545628</v>
+        <v>5.677861022606056</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.420246137763764</v>
+        <v>-4.397962075918096</v>
       </c>
       <c r="G34" t="n">
-        <v>1.544195606585949</v>
+        <v>1.57115288065686</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.024422858946956</v>
       </c>
       <c r="E35" t="n">
-        <v>5.476123659564868</v>
+        <v>5.467777505024247</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.283106693438316</v>
+        <v>-4.250903491626695</v>
       </c>
       <c r="G35" t="n">
-        <v>1.508772633521775</v>
+        <v>1.535543881786278</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9486919280123361</v>
       </c>
       <c r="E36" t="n">
-        <v>5.244477006377309</v>
+        <v>5.230009687924845</v>
       </c>
       <c r="F36" t="n">
-        <v>-4.100014605485317</v>
+        <v>-4.075373810144695</v>
       </c>
       <c r="G36" t="n">
-        <v>1.460265032179325</v>
+        <v>1.482072136055776</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8756261835966457</v>
       </c>
       <c r="E37" t="n">
-        <v>4.935391164545756</v>
+        <v>4.929856744324944</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.975569135244688</v>
+        <v>-3.939562773053205</v>
       </c>
       <c r="G37" t="n">
-        <v>1.382346445883408</v>
+        <v>1.399859098274874</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8049024353530653</v>
       </c>
       <c r="E38" t="n">
-        <v>4.665281693641111</v>
+        <v>4.660442582991792</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.897628896764746</v>
+        <v>-3.86169054072872</v>
       </c>
       <c r="G38" t="n">
-        <v>1.288618105725503</v>
+        <v>1.299471644168235</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7374207318259599</v>
       </c>
       <c r="E39" t="n">
-        <v>4.389065696920865</v>
+        <v>4.382996986187221</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.88395904959713</v>
+        <v>-3.840140823377857</v>
       </c>
       <c r="G39" t="n">
-        <v>1.24350593279051</v>
+        <v>1.259124171559997</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6718242668242892</v>
       </c>
       <c r="E40" t="n">
-        <v>4.087928341348692</v>
+        <v>4.082945289419661</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.780489971271221</v>
+        <v>-3.740857325696132</v>
       </c>
       <c r="G40" t="n">
-        <v>1.150332010527769</v>
+        <v>1.159422878214699</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6084282361726794</v>
       </c>
       <c r="E41" t="n">
-        <v>3.894239491557872</v>
+        <v>3.892010841405035</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.708310433583164</v>
+        <v>-3.675894979376034</v>
       </c>
       <c r="G41" t="n">
-        <v>1.095631884554297</v>
+        <v>1.109858284339445</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5454539377051576</v>
       </c>
       <c r="E42" t="n">
-        <v>3.587372541148329</v>
+        <v>3.588830251565756</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.697090637774045</v>
+        <v>-3.659795208232254</v>
       </c>
       <c r="G42" t="n">
-        <v>1.075306278001668</v>
+        <v>1.087680958612209</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4839548139503475</v>
       </c>
       <c r="E43" t="n">
-        <v>3.267788744628588</v>
+        <v>3.260459937776784</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.605035919953137</v>
+        <v>-3.56928907900961</v>
       </c>
       <c r="G43" t="n">
-        <v>1.016763651764682</v>
+        <v>1.028843130767677</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4236300652361892</v>
       </c>
       <c r="E44" t="n">
-        <v>3.044957884902746</v>
+        <v>3.033707288099451</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.551318071229567</v>
+        <v>-3.51645470038631</v>
       </c>
       <c r="G44" t="n">
-        <v>1.003397240133748</v>
+        <v>1.017376622044814</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.366228937426878</v>
       </c>
       <c r="E45" t="n">
-        <v>2.755544424579025</v>
+        <v>2.743810770599746</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.457647978496292</v>
+        <v>-3.421525426415888</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9213366825220345</v>
+        <v>0.9383126047179632</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3114273124225246</v>
       </c>
       <c r="E46" t="n">
-        <v>2.570040710270164</v>
+        <v>2.561135868389642</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.401713373073081</v>
+        <v>-3.368461717618131</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9025413669473663</v>
+        <v>0.9095237388547781</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2597060991918834</v>
       </c>
       <c r="E47" t="n">
-        <v>2.338479445977349</v>
+        <v>2.331009137528539</v>
       </c>
       <c r="F47" t="n">
-        <v>-3.30064158796713</v>
+        <v>-3.267156332892985</v>
       </c>
       <c r="G47" t="n">
-        <v>0.8085532005811673</v>
+        <v>0.8265251232422256</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2099333393065299</v>
       </c>
       <c r="E48" t="n">
-        <v>2.180172094644684</v>
+        <v>2.171275791653637</v>
       </c>
       <c r="F48" t="n">
-        <v>-3.281157366988075</v>
+        <v>-3.250320082532032</v>
       </c>
       <c r="G48" t="n">
-        <v>0.7185411071066889</v>
+        <v>0.7328163005459772</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1623376791358593</v>
       </c>
       <c r="E49" t="n">
-        <v>1.963297110327286</v>
+        <v>1.95805789171402</v>
       </c>
       <c r="F49" t="n">
-        <v>-3.212661445227238</v>
+        <v>-3.182772587423538</v>
       </c>
       <c r="G49" t="n">
-        <v>0.6341963965605535</v>
+        <v>0.6452243723168352</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1164939785534459</v>
       </c>
       <c r="E50" t="n">
-        <v>1.843256792174471</v>
+        <v>1.838064537453314</v>
       </c>
       <c r="F50" t="n">
-        <v>-3.136310660030901</v>
+        <v>-3.105873178578466</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5844286990999422</v>
+        <v>0.6025726193918435</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.07321674682928438</v>
       </c>
       <c r="E51" t="n">
-        <v>1.697461963525292</v>
+        <v>1.694935672082201</v>
       </c>
       <c r="F51" t="n">
-        <v>-3.065614144468357</v>
+        <v>-3.040115800656228</v>
       </c>
       <c r="G51" t="n">
-        <v>0.5098536979539572</v>
+        <v>0.5242307481462624</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.03222434344064588</v>
       </c>
       <c r="E52" t="n">
-        <v>1.607332155360201</v>
+        <v>1.605768928665696</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.948220882052628</v>
+        <v>-2.917824265285535</v>
       </c>
       <c r="G52" t="n">
-        <v>0.418649819477113</v>
+        <v>0.4332086260310892</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.00608123976918302</v>
       </c>
       <c r="E53" t="n">
-        <v>1.49205104824805</v>
+        <v>1.496528475936058</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.910591825900656</v>
+        <v>-2.881822477499127</v>
       </c>
       <c r="G53" t="n">
-        <v>0.4177270094931932</v>
+        <v>0.4308622611876394</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.04226432896482783</v>
       </c>
       <c r="E54" t="n">
-        <v>1.330778262585036</v>
+        <v>1.336179720098317</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.858495451296221</v>
+        <v>-2.825922637554491</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3437668083893702</v>
+        <v>0.353811592014734</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.07656221132079789</v>
       </c>
       <c r="E55" t="n">
-        <v>1.259972571221354</v>
+        <v>1.270605318379103</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.831133799816627</v>
+        <v>-2.805811113159401</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3105541878577315</v>
+        <v>0.3221390211918841</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.110290179550891</v>
       </c>
       <c r="E56" t="n">
-        <v>1.20766028469735</v>
+        <v>1.223428563953317</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.789072450106727</v>
+        <v>-2.762436604232462</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2620770825491191</v>
+        <v>0.2687459552286824</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1439783667346111</v>
       </c>
       <c r="E57" t="n">
-        <v>1.057882064108329</v>
+        <v>1.077653252765794</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.774045834393685</v>
+        <v>-2.751797757867946</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2145252269071335</v>
+        <v>0.2221638734627262</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1784148608165231</v>
       </c>
       <c r="E58" t="n">
-        <v>1.006941489186331</v>
+        <v>1.029578695103835</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.796719025631117</v>
+        <v>-2.776920390543199</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1879540326246044</v>
+        <v>0.1999096977302198</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.213008182316944</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9218874408931379</v>
+        <v>0.9481426962651116</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.740828944417309</v>
+        <v>-2.726018240623836</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1765533953348297</v>
+        <v>0.1865689027677095</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2481074353571155</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8553365561704503</v>
+        <v>0.8812569650908894</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.750959726858094</v>
+        <v>-2.728412179280072</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1291680480375963</v>
+        <v>0.142614359277184</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2836810675122364</v>
       </c>
       <c r="E61" t="n">
-        <v>0.8913426134015953</v>
+        <v>0.9241862319238013</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.754693051320469</v>
+        <v>-2.730973846122414</v>
       </c>
       <c r="G61" t="n">
-        <v>0.133582043975222</v>
+        <v>0.1507689987253055</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3201898307171444</v>
       </c>
       <c r="E62" t="n">
-        <v>0.8555817442825031</v>
+        <v>0.8931809143213139</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.727235032373948</v>
+        <v>-2.69722205571253</v>
       </c>
       <c r="G62" t="n">
-        <v>0.07437765380396477</v>
+        <v>0.08357220800594174</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.356621965150876</v>
       </c>
       <c r="E63" t="n">
-        <v>0.8423379267075958</v>
+        <v>0.8852592645717101</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.723606004347297</v>
+        <v>-2.695405711937174</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04711785907738707</v>
+        <v>0.05387334049304856</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3924545507174941</v>
       </c>
       <c r="E64" t="n">
-        <v>0.8488915243792536</v>
+        <v>0.8959639823693153</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.798822642045221</v>
+        <v>-2.760500106083787</v>
       </c>
       <c r="G64" t="n">
-        <v>0.07852999377126554</v>
+        <v>0.08006333435261016</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4261735916607153</v>
       </c>
       <c r="E65" t="n">
-        <v>0.8356666143453255</v>
+        <v>0.8865547360891229</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.906293714891613</v>
+        <v>-2.873312254296462</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01233774240650581</v>
+        <v>0.01519217117368673</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4571467600235912</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8209894831800603</v>
+        <v>0.8730016887311044</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.976358352633046</v>
+        <v>-2.94656067797052</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.00235280701364791</v>
+        <v>0.006225727304813525</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4843580563466108</v>
       </c>
       <c r="E67" t="n">
-        <v>0.7523288828365011</v>
+        <v>0.8089087843357115</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.979369531014151</v>
+        <v>-2.953583304642597</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.05465716456885437</v>
+        <v>-0.04642750487749282</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5081880834940729</v>
       </c>
       <c r="E68" t="n">
-        <v>0.7664607449167536</v>
+        <v>0.8292886738285711</v>
       </c>
       <c r="F68" t="n">
-        <v>-3.040503100285962</v>
+        <v>-3.017961651914708</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.1244729546741743</v>
+        <v>-0.1150862754590217</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5283728271648659</v>
       </c>
       <c r="E69" t="n">
-        <v>0.7218328489990982</v>
+        <v>0.7859196541877237</v>
       </c>
       <c r="F69" t="n">
-        <v>-3.065586698037903</v>
+        <v>-3.044955521226223</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.1144836738303946</v>
+        <v>-0.1108326886593807</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.5458473178528915</v>
       </c>
       <c r="E70" t="n">
-        <v>0.6886001010851268</v>
+        <v>0.7516024673104942</v>
       </c>
       <c r="F70" t="n">
-        <v>-3.134616300390895</v>
+        <v>-3.113380082267881</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.117177083538914</v>
+        <v>-0.1053379132825575</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5605879495520077</v>
       </c>
       <c r="E71" t="n">
-        <v>0.6520304771486667</v>
+        <v>0.7131921027716085</v>
       </c>
       <c r="F71" t="n">
-        <v>-3.161339364921934</v>
+        <v>-3.143874286343254</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.14852029719632</v>
+        <v>-0.1378186290020986</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.5729735810008301</v>
       </c>
       <c r="E72" t="n">
-        <v>0.6168831882303831</v>
+        <v>0.6827033879823265</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.217843636257228</v>
+        <v>-3.200010775510468</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2195845949269432</v>
+        <v>-0.2078722881713503</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5822168452163127</v>
       </c>
       <c r="E73" t="n">
-        <v>0.6249792752935368</v>
+        <v>0.7027344028480863</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.268928762379615</v>
+        <v>-3.250297515466992</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2982668019101497</v>
+        <v>-0.2781016044955054</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5873704359700863</v>
       </c>
       <c r="E74" t="n">
-        <v>0.5639005988826328</v>
+        <v>0.6436806630839857</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.299496156936197</v>
+        <v>-3.281342782873807</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.3425250858976958</v>
+        <v>-0.3185899687800717</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.5861515518948387</v>
       </c>
       <c r="E75" t="n">
-        <v>0.572227845882274</v>
+        <v>0.6566768528641335</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.285060554358924</v>
+        <v>-3.266938286251048</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.324866662464486</v>
+        <v>-0.2978526657706377</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5775000029747361</v>
       </c>
       <c r="E76" t="n">
-        <v>0.5788857399896559</v>
+        <v>0.6597447538681761</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.344011217528654</v>
+        <v>-3.328571075596777</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.3552968248688001</v>
+        <v>-0.331068945826337</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.5600880206047373</v>
       </c>
       <c r="E77" t="n">
-        <v>0.496142071219984</v>
+        <v>0.5735434447820196</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.36468630862906</v>
+        <v>-3.348489255137339</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.3718403133049144</v>
+        <v>-0.3455826182502338</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5335843986038953</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5323189062406184</v>
+        <v>0.6068005895230609</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.346422843884516</v>
+        <v>-3.326698314158822</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.343710771693294</v>
+        <v>-0.3175488341848628</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4979953934163667</v>
       </c>
       <c r="E79" t="n">
-        <v>0.5647172826687985</v>
+        <v>0.6347928989824131</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.311381681163987</v>
+        <v>-3.29333077377529</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2937741262052235</v>
+        <v>-0.2642289587028708</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.454745006989944</v>
       </c>
       <c r="E80" t="n">
-        <v>0.6129266328003184</v>
+        <v>0.6800581620072702</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.267988569656408</v>
+        <v>-3.246276003484854</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3025594236331025</v>
+        <v>-0.2678506676814008</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4048890371832425</v>
       </c>
       <c r="E81" t="n">
-        <v>0.7905806679994323</v>
+        <v>0.8601073557039737</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.150424224490851</v>
+        <v>-3.132021087911332</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3215993173991467</v>
+        <v>-0.2852169391104483</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3505316528161422</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8792552054298022</v>
+        <v>0.949252751896793</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.015644258303404</v>
+        <v>-2.995637945225052</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2908599252117213</v>
+        <v>-0.2567074169172138</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2919093412800004</v>
       </c>
       <c r="E83" t="n">
-        <v>1.076557835230355</v>
+        <v>1.148736458037397</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.870821338252623</v>
+        <v>-2.851087354756439</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2436423061005936</v>
+        <v>-0.2028154358404321</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2305563210748458</v>
       </c>
       <c r="E84" t="n">
-        <v>1.358430236306763</v>
+        <v>1.423500843546983</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.76993740871511</v>
+        <v>-2.749785629555354</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2874449793426089</v>
+        <v>-0.2474195448516943</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1680167140296185</v>
       </c>
       <c r="E85" t="n">
-        <v>1.576295121882523</v>
+        <v>1.636330224015511</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.550233612298955</v>
+        <v>-2.536126147045772</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2418680468519335</v>
+        <v>-0.2008399027684452</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1068549273102268</v>
       </c>
       <c r="E86" t="n">
-        <v>1.840937263840798</v>
+        <v>1.893106219005766</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.339299255373083</v>
+        <v>-2.320339261215693</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2549026616347163</v>
+        <v>-0.2071940563788064</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.04946248135331696</v>
       </c>
       <c r="E87" t="n">
-        <v>2.009949332971068</v>
+        <v>2.053883749079261</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.084104784697635</v>
+        <v>-2.066098096558002</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2483130786431302</v>
+        <v>-0.2025129151847651</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.00160490959035242</v>
       </c>
       <c r="E88" t="n">
-        <v>2.195938544138621</v>
+        <v>2.22695667007532</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.770243873887822</v>
+        <v>-1.756850015826435</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1995090558517809</v>
+        <v>-0.1535978868302476</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.04453387843545832</v>
       </c>
       <c r="E89" t="n">
-        <v>2.262225943128954</v>
+        <v>2.291081290345904</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.544695817547067</v>
+        <v>-1.534310088263401</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.2258838556763972</v>
+        <v>-0.1879907038713938</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.07748287506692948</v>
       </c>
       <c r="E90" t="n">
-        <v>2.396491441225564</v>
+        <v>2.416445606086054</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.359392767140856</v>
+        <v>-1.342027105632485</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.2413929186447468</v>
+        <v>-0.2032210330904696</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.09900569654783331</v>
       </c>
       <c r="E91" t="n">
-        <v>2.417877699835058</v>
+        <v>2.438075832966247</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.039405813053785</v>
+        <v>-1.016198331303521</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.2037931386852593</v>
+        <v>-0.1690380287621247</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1085635694524022</v>
       </c>
       <c r="E92" t="n">
-        <v>2.353251724768187</v>
+        <v>2.378127949490034</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8807678847143219</v>
+        <v>-0.8553409016213721</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.2045970141372132</v>
+        <v>-0.1689154347060983</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1062548287785561</v>
       </c>
       <c r="E93" t="n">
-        <v>2.286571536862029</v>
+        <v>2.311176956803399</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.6541195314727134</v>
+        <v>-0.6252580850489953</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.2160275375401486</v>
+        <v>-0.1881675808676508</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.09348319723108817</v>
       </c>
       <c r="E94" t="n">
-        <v>2.218626373472295</v>
+        <v>2.243575788675352</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.4111801969551642</v>
+        <v>-0.3742232733889691</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1937385963290675</v>
+        <v>-0.1749926843292159</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.07280470740769573</v>
       </c>
       <c r="E95" t="n">
-        <v>2.054686404689862</v>
+        <v>2.079591905604192</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.2240559234081832</v>
+        <v>-0.1875357030465398</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1991809185276904</v>
+        <v>-0.188416428503764</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.04810037212837469</v>
       </c>
       <c r="E96" t="n">
-        <v>1.90554982065278</v>
+        <v>1.932945017769596</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.08684023899814239</v>
+        <v>-0.04842072564910548</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.2103357577847357</v>
+        <v>-0.2031142969720387</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.0235171594628896</v>
       </c>
       <c r="E97" t="n">
-        <v>1.753481347922571</v>
+        <v>1.776901691989019</v>
       </c>
       <c r="F97" t="n">
-        <v>0.08026338833458353</v>
+        <v>0.1135833549053299</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2025562195528142</v>
+        <v>-0.1998475618273761</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.002516801261404868</v>
       </c>
       <c r="E98" t="n">
-        <v>1.58287128661922</v>
+        <v>1.611113663556039</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1901326692819484</v>
+        <v>0.2264699134405675</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.2815720531462018</v>
+        <v>-0.2878859519918978</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.01218391303229013</v>
       </c>
       <c r="E99" t="n">
-        <v>1.483176702401366</v>
+        <v>1.505463813850417</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2963832908541671</v>
+        <v>0.3240749094198824</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2597240845844097</v>
+        <v>-0.2669742116689138</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.02173980862784804</v>
       </c>
       <c r="E100" t="n">
-        <v>1.333308823472864</v>
+        <v>1.352078522379109</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3405970506323106</v>
+        <v>0.3653866666180587</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3294892512735595</v>
+        <v>-0.3394510856868855</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.02670877332072928</v>
       </c>
       <c r="E101" t="n">
-        <v>1.271013355311847</v>
+        <v>1.284169344309303</v>
       </c>
       <c r="F101" t="n">
-        <v>0.4045356450964863</v>
+        <v>0.4255870572544455</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3448934078855085</v>
+        <v>-0.3551431248582596</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.03181408074314944</v>
       </c>
       <c r="E102" t="n">
-        <v>1.147035389269946</v>
+        <v>1.154048867131872</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4162692990757654</v>
+        <v>0.4270557462440548</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3809915631388423</v>
+        <v>-0.3874402544540995</v>
       </c>
     </row>
   </sheetData>
